--- a/1/.prog/gyakorlas/idojaras/idojaras elorejelzes.xlsx
+++ b/1/.prog/gyakorlas/idojaras/idojaras elorejelzes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lothiard\OneDrive\Asztali gép\ELTE\repo\elte-cs-bsc\1\.prog\gyakorlas\idojaras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF22208D-9BF1-4CD2-9E54-5C8BAF162B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E58C7F-3EAF-48B7-B5D5-AE668CB723BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{316957B8-AB5B-4CAD-957A-5FDAF5793555}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{316957B8-AB5B-4CAD-957A-5FDAF5793555}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>1. feladat</t>
   </si>
@@ -84,6 +84,51 @@
   </si>
   <si>
     <t>f(i)</t>
+  </si>
+  <si>
+    <t>maxkulonbsegind</t>
+  </si>
+  <si>
+    <t>maxkulonbsegert</t>
+  </si>
+  <si>
+    <t>ido[i].max - ido[i].min</t>
+  </si>
+  <si>
+    <t>vankisebb</t>
+  </si>
+  <si>
+    <t>kisebbind</t>
+  </si>
+  <si>
+    <t>1 + 1</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>ido[i].max &lt; ido[I - 1].min</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>es vankisebb = hamis -&gt; kisebbind := -1</t>
+  </si>
+  <si>
+    <t>melyikdb</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ido[i].min &lt;= 0 es ido[i].max &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -108,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,15 +161,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -459,111 +599,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA36331-7AF0-4A0D-B40C-A1A38FCBB6DB}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
